--- a/afa8d398-aaaa-4bff-959c-b78ced3cfc49.xlsx
+++ b/afa8d398-aaaa-4bff-959c-b78ced3cfc49.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhirun You\Desktop\Project Volt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57450125-174D-4238-8B29-D5593D1A934D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4921DF6-D63B-4B0B-AB8F-4CF123D91D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -1580,12 +1580,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3833A3-D60F-4F5C-B886-338C2E56D491}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.73046875" customWidth="1"/>
     <col min="13" max="13" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
